--- a/src/mazdaNelspruit/cars.xlsx
+++ b/src/mazdaNelspruit/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -35,19 +35,67 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Renault Sandero 900T Stepway Expression</t>
+  </si>
+  <si>
+    <t>UG5376</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>107 000 Km</t>
+  </si>
+  <si>
+    <t>R 129 900</t>
+  </si>
+  <si>
+    <t>Toyota Land Cruiser 79 4.2 D Single-Cab</t>
+  </si>
+  <si>
+    <t>UG5352</t>
+  </si>
+  <si>
+    <t>260 000 Km</t>
+  </si>
+  <si>
+    <t>R 529 000</t>
+  </si>
+  <si>
+    <t>Opel Adam 1.0T Jam</t>
+  </si>
+  <si>
+    <t>UG5371</t>
+  </si>
+  <si>
+    <t>84 000 Km</t>
+  </si>
+  <si>
+    <t>R 189 900</t>
+  </si>
+  <si>
+    <t>Kia Rio 1.4 Tec 5-dr</t>
+  </si>
+  <si>
+    <t>UG5373</t>
+  </si>
+  <si>
+    <t>92 200 Km</t>
+  </si>
+  <si>
+    <t>R 169 900</t>
+  </si>
+  <si>
     <t>Toyota Hilux 3.0 D-4D Raider Xtra-Cab 4x4</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Used</t>
-  </si>
-  <si>
     <t>218 000 Km</t>
   </si>
   <si>
-    <t>R 319 900</t>
+    <t>R 309 900</t>
   </si>
   <si>
     <t>Toyota Fortuner 2.8 GD-6 4x4 Auto</t>
@@ -71,7 +119,7 @@
     <t>94 700 Km</t>
   </si>
   <si>
-    <t>R 369 000</t>
+    <t>R 364 900</t>
   </si>
   <si>
     <t>Mazda CX-3 2.0 Active</t>
@@ -83,7 +131,7 @@
     <t>64 000 Km</t>
   </si>
   <si>
-    <t>R 239 900</t>
+    <t>R 234 900</t>
   </si>
   <si>
     <t>Ford Ranger 3.2 TDCi XLT 4x4 Auto Double-Cab</t>
@@ -107,222 +155,186 @@
     <t>194 500 Km</t>
   </si>
   <si>
+    <t>R 224 900</t>
+  </si>
+  <si>
+    <t>Volkswagen Amarok 2.0 BiTDI Highline (132kW) 4Motion Auto Double-Cab</t>
+  </si>
+  <si>
+    <t>UG5351</t>
+  </si>
+  <si>
+    <t>217 000 Km</t>
+  </si>
+  <si>
+    <t>R 359 900</t>
+  </si>
+  <si>
+    <t>Volkswagen T-Roc 2.0 TSI Design 4Motion Auto</t>
+  </si>
+  <si>
+    <t>UG5377</t>
+  </si>
+  <si>
+    <t>R 399 000</t>
+  </si>
+  <si>
+    <t>Nissan X-Trail 2.0 4x2 XE</t>
+  </si>
+  <si>
+    <t>UG5368</t>
+  </si>
+  <si>
+    <t>177 000 Km</t>
+  </si>
+  <si>
+    <t>R 134 900</t>
+  </si>
+  <si>
+    <t>UG5339</t>
+  </si>
+  <si>
+    <t>257 000 Km</t>
+  </si>
+  <si>
+    <t>R 419 900</t>
+  </si>
+  <si>
+    <t>Nissan NP200 1.6 A/C Safety Pack</t>
+  </si>
+  <si>
+    <t>UG5324</t>
+  </si>
+  <si>
+    <t>91 000 Km</t>
+  </si>
+  <si>
+    <t>R 204 900</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 2.4 GD-6 Raised Body Auto</t>
+  </si>
+  <si>
+    <t>UG5313</t>
+  </si>
+  <si>
+    <t>98 000 Km</t>
+  </si>
+  <si>
+    <t>R 399 900</t>
+  </si>
+  <si>
+    <t>Ford Ranger 2.2 TDCi XLS 4x4 Auto Single-Cab</t>
+  </si>
+  <si>
+    <t>UG5364</t>
+  </si>
+  <si>
+    <t>137 500 Km</t>
+  </si>
+  <si>
+    <t>R 349 900</t>
+  </si>
+  <si>
+    <t>Toyota Land Cruiser Prado 4.0 V6 VX Auto</t>
+  </si>
+  <si>
+    <t>UG5308</t>
+  </si>
+  <si>
+    <t>372 500 Km</t>
+  </si>
+  <si>
+    <t>R 279 900</t>
+  </si>
+  <si>
+    <t>Toyota Hilux 2.4 GD-6 Raider 4x4 Double-Cab</t>
+  </si>
+  <si>
+    <t>UG5307</t>
+  </si>
+  <si>
+    <t>152 000 Km</t>
+  </si>
+  <si>
+    <t>R 449 900</t>
+  </si>
+  <si>
+    <t>UG5306</t>
+  </si>
+  <si>
+    <t>132 000 Km</t>
+  </si>
+  <si>
+    <t>R 469 900</t>
+  </si>
+  <si>
+    <t>Suzuki Swift 1.2 GL</t>
+  </si>
+  <si>
+    <t>UG5343</t>
+  </si>
+  <si>
+    <t>32 000 Km</t>
+  </si>
+  <si>
+    <t>R 199 900</t>
+  </si>
+  <si>
+    <t>Toyota Vitz 1.0 XR AMT</t>
+  </si>
+  <si>
+    <t>UG5336</t>
+  </si>
+  <si>
+    <t>21 000 Km</t>
+  </si>
+  <si>
+    <t>R 209 900</t>
+  </si>
+  <si>
+    <t>Toyota Land Cruiser 79 4.5 D Double-Cab</t>
+  </si>
+  <si>
+    <t>UG5353</t>
+  </si>
+  <si>
+    <t>180 000 Km</t>
+  </si>
+  <si>
+    <t>R 769 900</t>
+  </si>
+  <si>
+    <t>Toyota Fortuner 3.0 D-4D 4x4</t>
+  </si>
+  <si>
+    <t>UG5347</t>
+  </si>
+  <si>
+    <t>273 000 Km</t>
+  </si>
+  <si>
+    <t>R 319 000</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz A-Class A 200 Style Auto</t>
+  </si>
+  <si>
+    <t>UG5318</t>
+  </si>
+  <si>
+    <t>163 000 Km</t>
+  </si>
+  <si>
+    <t>UG5333</t>
+  </si>
+  <si>
+    <t>1 500 Km</t>
+  </si>
+  <si>
     <t>R 229 900</t>
   </si>
   <si>
-    <t>Volkswagen Polo Cross 1.2 TSI</t>
-  </si>
-  <si>
-    <t>UG5375</t>
-  </si>
-  <si>
-    <t>184 000 Km</t>
-  </si>
-  <si>
-    <t>R 169 900</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2.5 D-4D Raised Body</t>
-  </si>
-  <si>
-    <t>UG5366</t>
-  </si>
-  <si>
-    <t>R 289 000</t>
-  </si>
-  <si>
-    <t>Volkswagen Amarok 2.0 BiTDI Highline (132kW) 4Motion Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UG5351</t>
-  </si>
-  <si>
-    <t>217 000 Km</t>
-  </si>
-  <si>
-    <t>R 369 900</t>
-  </si>
-  <si>
-    <t>Volkswagen T-Roc 2.0 TSI Design 4Motion Auto</t>
-  </si>
-  <si>
-    <t>UG5377</t>
-  </si>
-  <si>
-    <t>R 399 000</t>
-  </si>
-  <si>
-    <t>Toyota Hilux 2.8 GD-6 Raised Body Raider Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UG5310</t>
-  </si>
-  <si>
-    <t>136 000 Km</t>
-  </si>
-  <si>
-    <t>R 459 900</t>
-  </si>
-  <si>
-    <t>Nissan X-Trail 2.0 4x2 XE</t>
-  </si>
-  <si>
-    <t>UG5368</t>
-  </si>
-  <si>
-    <t>177 000 Km</t>
-  </si>
-  <si>
-    <t>R 139 900</t>
-  </si>
-  <si>
-    <t>UG5339</t>
-  </si>
-  <si>
-    <t>257 000 Km</t>
-  </si>
-  <si>
-    <t>R 419 900</t>
-  </si>
-  <si>
-    <t>Nissan NP200 1.6 A/C Safety Pack</t>
-  </si>
-  <si>
-    <t>UG5324</t>
-  </si>
-  <si>
-    <t>91 000 Km</t>
-  </si>
-  <si>
-    <t>R 204 900</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 2.4 GD-6 Raised Body Auto</t>
-  </si>
-  <si>
-    <t>UG5313</t>
-  </si>
-  <si>
-    <t>98 000 Km</t>
-  </si>
-  <si>
-    <t>R 419 000</t>
-  </si>
-  <si>
-    <t>Ford Ranger 2.2 TDCi XLS 4x4 Auto Single-Cab</t>
-  </si>
-  <si>
-    <t>UG5364</t>
-  </si>
-  <si>
-    <t>137 500 Km</t>
-  </si>
-  <si>
-    <t>R 349 900</t>
-  </si>
-  <si>
-    <t>Toyota Land Cruiser Prado 4.0 V6 VX Auto</t>
-  </si>
-  <si>
-    <t>UG5308</t>
-  </si>
-  <si>
-    <t>372 500 Km</t>
-  </si>
-  <si>
-    <t>R 289 900</t>
-  </si>
-  <si>
-    <t>Toyota Hilux 2.4 GD-6 Raider 4x4 Double-Cab</t>
-  </si>
-  <si>
-    <t>UG5307</t>
-  </si>
-  <si>
-    <t>152 000 Km</t>
-  </si>
-  <si>
-    <t>R 449 900</t>
-  </si>
-  <si>
-    <t>UG5306</t>
-  </si>
-  <si>
-    <t>132 000 Km</t>
-  </si>
-  <si>
-    <t>R 469 900</t>
-  </si>
-  <si>
-    <t>Suzuki Swift 1.2 GL</t>
-  </si>
-  <si>
-    <t>UG5343</t>
-  </si>
-  <si>
-    <t>32 000 Km</t>
-  </si>
-  <si>
-    <t>R 199 900</t>
-  </si>
-  <si>
-    <t>Toyota Vitz 1.0 XR AMT</t>
-  </si>
-  <si>
-    <t>UG5336</t>
-  </si>
-  <si>
-    <t>21 000 Km</t>
-  </si>
-  <si>
-    <t>R 209 900</t>
-  </si>
-  <si>
-    <t>Toyota Land Cruiser 79 4.5 D Double-Cab</t>
-  </si>
-  <si>
-    <t>UG5353</t>
-  </si>
-  <si>
-    <t>180 000 Km</t>
-  </si>
-  <si>
-    <t>R 749 900</t>
-  </si>
-  <si>
-    <t>Toyota Fortuner 3.0 D-4D 4x4</t>
-  </si>
-  <si>
-    <t>UG5347</t>
-  </si>
-  <si>
-    <t>273 000 Km</t>
-  </si>
-  <si>
-    <t>R 319 000</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz A-Class A 200 Style Auto</t>
-  </si>
-  <si>
-    <t>UG5318</t>
-  </si>
-  <si>
-    <t>163 000 Km</t>
-  </si>
-  <si>
-    <t>UG5333</t>
-  </si>
-  <si>
-    <t>1 500 Km</t>
-  </si>
-  <si>
-    <t>UG5332</t>
-  </si>
-  <si>
-    <t>2 500 Km</t>
-  </si>
-  <si>
     <t>Ford Ranger 2.0D XL HR Single-Cab</t>
   </si>
   <si>
@@ -330,18 +342,6 @@
   </si>
   <si>
     <t>200 Km</t>
-  </si>
-  <si>
-    <t>Toyota Hilux 2.8 GD-6 Raised Body Raider Auto Single-Cab</t>
-  </si>
-  <si>
-    <t>UG5311</t>
-  </si>
-  <si>
-    <t>185 000 Km</t>
-  </si>
-  <si>
-    <t>R 409 900</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9988865.0</v>
+        <v>9995277.0</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -435,7 +435,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -449,7 +449,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>9986980.0</v>
+        <v>9995257.0</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -472,7 +472,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>9986675.0</v>
+        <v>9991649.0</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -495,7 +495,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>9984495.0</v>
+        <v>9991629.0</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -504,7 +504,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>2020.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -518,7 +518,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>9984385.0</v>
+        <v>9988865.0</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -527,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>2014.0</v>
+        <v>2013.0</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -541,7 +541,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>9983136.0</v>
+        <v>9986980.0</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -550,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>2008.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -564,7 +564,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>9979442.0</v>
+        <v>9986675.0</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>2014.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -587,7 +587,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>9971155.0</v>
+        <v>9984495.0</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
@@ -596,254 +596,254 @@
         <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>2015.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>9968867.0</v>
+        <v>9984385.0</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>2018.0</v>
+        <v>2014.0</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>9968789.0</v>
+        <v>9983136.0</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>2021.0</v>
+        <v>2008.0</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="n">
-        <v>9968569.0</v>
+        <v>9968867.0</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>2021.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>9968348.0</v>
+        <v>9968789.0</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>2010.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B14" t="n">
-        <v>9965358.0</v>
+        <v>9968348.0</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>2016.0</v>
+        <v>2010.0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B15" t="n">
-        <v>9965352.0</v>
+        <v>9965358.0</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>2022.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" t="n">
-        <v>9961298.0</v>
+        <v>9965352.0</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>2019.0</v>
+        <v>2022.0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B17" t="n">
-        <v>9956466.0</v>
+        <v>9961298.0</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>2020.0</v>
+        <v>2019.0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="n">
-        <v>9953579.0</v>
+        <v>9956466.0</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>2010.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" t="n">
-        <v>9953509.0</v>
+        <v>9953579.0</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="n">
-        <v>2022.0</v>
+        <v>2010.0</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B20" t="n">
-        <v>9953493.0</v>
+        <v>9953509.0</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -852,44 +852,44 @@
         <v>2022.0</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" t="n">
-        <v>9937815.0</v>
+        <v>9953493.0</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>2023.0</v>
+        <v>2022.0</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" t="n">
-        <v>9937775.0</v>
+        <v>9937815.0</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -898,113 +898,113 @@
         <v>2023.0</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23" t="n">
-        <v>9921570.0</v>
+        <v>9937775.0</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>2016.0</v>
+        <v>2023.0</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B24" t="n">
-        <v>9919374.0</v>
+        <v>9921570.0</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="n">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B25" t="n">
-        <v>9902989.0</v>
+        <v>9919374.0</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>2015.0</v>
+        <v>2013.0</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B26" t="n">
-        <v>9894412.0</v>
+        <v>9902989.0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>2024.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B27" t="n">
-        <v>9893926.0</v>
+        <v>9894412.0</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1013,21 +1013,21 @@
         <v>2024.0</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B28" t="n">
         <v>9873383.0</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1036,33 +1036,10 @@
         <v>2024.0</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="n">
-        <v>9850485.0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/mazdaNelspruit/cars.xlsx
+++ b/src/mazdaNelspruit/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>Vehicle_Name</t>
   </si>
@@ -35,19 +35,19 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Nissan NP300 2.5 TDi Hi-Rider Single-Cab</t>
-  </si>
-  <si>
-    <t>UG5413</t>
+    <t>Toyota Hilux 2.8GD-6 Double Cab 4x4 Legend 50 Auto</t>
+  </si>
+  <si>
+    <t>UG5438</t>
   </si>
   <si>
     <t>Used</t>
   </si>
   <si>
-    <t>256 000 Km</t>
-  </si>
-  <si>
-    <t>R 139 900</t>
+    <t>75 000 Km</t>
+  </si>
+  <si>
+    <t>R 619 900</t>
   </si>
   <si>
     <t>Mazda CX-5 2.0 Dynamic Auto</t>
@@ -185,18 +185,6 @@
     <t>R 159 900</t>
   </si>
   <si>
-    <t>Toyota Fortuner 2.5 D-4D Raised Body Auto</t>
-  </si>
-  <si>
-    <t>UG5380</t>
-  </si>
-  <si>
-    <t>266 100 Km</t>
-  </si>
-  <si>
-    <t>R 289 000</t>
-  </si>
-  <si>
     <t>Opel Adam 1.0T Jam</t>
   </si>
   <si>
@@ -219,18 +207,6 @@
   </si>
   <si>
     <t>R 349 900</t>
-  </si>
-  <si>
-    <t>Ford Ranger 3.2 TDCi XLT 4x4 Auto Double-Cab</t>
-  </si>
-  <si>
-    <t>UG5359</t>
-  </si>
-  <si>
-    <t>134 000 Km</t>
-  </si>
-  <si>
-    <t>R 249 900</t>
   </si>
   <si>
     <t>Volkswagen T-Roc 2.0 TSI Design 4Motion Auto</t>
@@ -335,7 +311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -369,7 +345,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0133103E7</v>
+        <v>1.0141375E7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -378,7 +354,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>2009.0</v>
+        <v>2020.0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -668,7 +644,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0014875E7</v>
+        <v>9991649.0</v>
       </c>
       <c r="C15" t="s">
         <v>58</v>
@@ -677,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>2016.0</v>
+        <v>2018.0</v>
       </c>
       <c r="F15" t="s">
         <v>59</v>
@@ -691,7 +667,7 @@
         <v>61</v>
       </c>
       <c r="B16" t="n">
-        <v>9991649.0</v>
+        <v>9986675.0</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
@@ -700,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>2018.0</v>
+        <v>2021.0</v>
       </c>
       <c r="F16" t="s">
         <v>63</v>
@@ -714,7 +690,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="n">
-        <v>9986675.0</v>
+        <v>9968789.0</v>
       </c>
       <c r="C17" t="s">
         <v>66</v>
@@ -729,53 +705,53 @@
         <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9937815.0</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="n">
-        <v>9984385.0</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="F18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2014.0</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9919374.0</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="n">
-        <v>9968789.0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="F19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2021.0</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>75</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -783,7 +759,7 @@
         <v>76</v>
       </c>
       <c r="B20" t="n">
-        <v>9937815.0</v>
+        <v>9902989.0</v>
       </c>
       <c r="C20" t="s">
         <v>77</v>
@@ -792,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>2023.0</v>
+        <v>2015.0</v>
       </c>
       <c r="F20" t="s">
         <v>78</v>
@@ -803,71 +779,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9894412.0</v>
+      </c>
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="n">
-        <v>9919374.0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>82</v>
-      </c>
-      <c r="G21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" t="n">
-        <v>9902989.0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="n">
-        <v>9894412.0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
